--- a/biology/Zoologie/Baccha/Baccha.xlsx
+++ b/biology/Zoologie/Baccha/Baccha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baccha est un genre d'insectes diptères du sous-ordre des Brachycera (les Brachycera sont des mouches muscoïdes aux antennes courtes) et de la famille des Syrphidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 juin 2014)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 juin 2014)
 Bacca Rondani, 1844
 Bacchina Williston, 1896
 Bacha Schiner, 1862</t>
@@ -544,11 +558,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (1 juin 2014)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (1 juin 2014)
 Baccha elongata - seule espèce d'Europe
-Selon EOL                          (1 juin 2014)[3]
+Selon EOL                          (1 juin 2014)
 Baccha bistriatus Kohli, Kapoor &amp; Gupta, 1988
 Baccha elongata (Fabricius, 1775)
 Baccha exila Violovitsh, 1976
